--- a/Assignment1/snapshot.xlsx
+++ b/Assignment1/snapshot.xlsx
@@ -4,67 +4,216 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="345" windowWidth="12795" windowHeight="12630"/>
+    <workbookView xWindow="-300" yWindow="345" windowWidth="28605" windowHeight="12630" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Facilities vs Years" sheetId="10" r:id="rId1"/>
-    <sheet name="Designs vs Years" sheetId="11" r:id="rId2"/>
-    <sheet name="Price vs Calories" sheetId="12" r:id="rId3"/>
-    <sheet name="Suppliers vs Years" sheetId="13" r:id="rId4"/>
-    <sheet name="Country vs Sales Periods" sheetId="14" r:id="rId5"/>
+    <sheet name="1. Create Structure" sheetId="4" r:id="rId1"/>
+    <sheet name="2. Create Data" sheetId="6" r:id="rId2"/>
+    <sheet name="Facilities vs Years" sheetId="10" r:id="rId3"/>
+    <sheet name="Designs vs Years" sheetId="11" r:id="rId4"/>
+    <sheet name="Price vs Calories" sheetId="16" r:id="rId5"/>
+    <sheet name="Suppliers vs Years" sheetId="13" r:id="rId6"/>
+    <sheet name="Country vs Sales Periods" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_paloimportactive">FALSE</definedName>
+    <definedName name="_palopasteviewcolwidth" localSheetId="6">14</definedName>
+    <definedName name="_palopasteviewcolwidth" localSheetId="3">14</definedName>
+    <definedName name="_palopasteviewcolwidth" localSheetId="2">14</definedName>
     <definedName name="_palopasteviewcolwidth" localSheetId="4">14</definedName>
-    <definedName name="_palopasteviewcolwidth" localSheetId="1">14</definedName>
-    <definedName name="_palopasteviewcolwidth" localSheetId="0">14</definedName>
-    <definedName name="_palopasteviewcolwidth" localSheetId="2">14</definedName>
-    <definedName name="_palopasteviewcolwidth" localSheetId="3">14</definedName>
+    <definedName name="_palopasteviewcolwidth" localSheetId="5">14</definedName>
+    <definedName name="_palopasteviewident" localSheetId="6">TRUE</definedName>
+    <definedName name="_palopasteviewident" localSheetId="3">TRUE</definedName>
+    <definedName name="_palopasteviewident" localSheetId="2">TRUE</definedName>
     <definedName name="_palopasteviewident" localSheetId="4">TRUE</definedName>
-    <definedName name="_palopasteviewident" localSheetId="1">TRUE</definedName>
-    <definedName name="_palopasteviewident" localSheetId="0">TRUE</definedName>
-    <definedName name="_palopasteviewident" localSheetId="2">TRUE</definedName>
-    <definedName name="_palopasteviewident" localSheetId="3">TRUE</definedName>
+    <definedName name="_palopasteviewident" localSheetId="5">TRUE</definedName>
+    <definedName name="_palopasteviewzerosuppression" localSheetId="6">FALSE</definedName>
+    <definedName name="_palopasteviewzerosuppression" localSheetId="3">FALSE</definedName>
+    <definedName name="_palopasteviewzerosuppression" localSheetId="2">FALSE</definedName>
     <definedName name="_palopasteviewzerosuppression" localSheetId="4">FALSE</definedName>
-    <definedName name="_palopasteviewzerosuppression" localSheetId="1">FALSE</definedName>
-    <definedName name="_palopasteviewzerosuppression" localSheetId="0">FALSE</definedName>
-    <definedName name="_palopasteviewzerosuppression" localSheetId="2">FALSE</definedName>
-    <definedName name="_palopasteviewzerosuppression" localSheetId="3">FALSE</definedName>
+    <definedName name="_palopasteviewzerosuppression" localSheetId="5">FALSE</definedName>
+    <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="6">FALSE</definedName>
+    <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="3">FALSE</definedName>
+    <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="2">FALSE</definedName>
     <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="4">FALSE</definedName>
-    <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="1">FALSE</definedName>
-    <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="0">FALSE</definedName>
-    <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="2">FALSE</definedName>
-    <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="3">FALSE</definedName>
+    <definedName name="_palopasteviewzerosuppressionalsocalculatednull" localSheetId="5">FALSE</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="98">
   <si>
     <t>localhost/BurgerStore</t>
   </si>
   <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Stores</t>
+  </si>
+  <si>
+    <t>Designs</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Combos</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>↑ StoreName</t>
+  </si>
+  <si>
+    <t>↑ StoreCountry</t>
+  </si>
+  <si>
+    <t>↑ StoreDesign</t>
+  </si>
+  <si>
+    <t>↑ StoreFacilities</t>
+  </si>
+  <si>
+    <t>↑ SalesYear</t>
+  </si>
+  <si>
+    <t>↑ SalesPeriod</t>
+  </si>
+  <si>
+    <t>↑ ComboName</t>
+  </si>
+  <si>
+    <t>↑ ComboSupplier</t>
+  </si>
+  <si>
+    <t>↑ ComboCalories</t>
+  </si>
+  <si>
+    <t>← Add store to elements</t>
+  </si>
+  <si>
+    <t>← Add design to elements</t>
+  </si>
+  <si>
+    <t>← Add facility to elements</t>
+  </si>
+  <si>
+    <t>Month/Number conversion</t>
+  </si>
+  <si>
+    <t>← Add month to elements</t>
+  </si>
+  <si>
+    <t>← Add year to elements</t>
+  </si>
+  <si>
+    <t>← Add period to elements</t>
+  </si>
+  <si>
+    <t>← Add combo to elements</t>
+  </si>
+  <si>
+    <t>← Add supplier to elements</t>
+  </si>
+  <si>
+    <t>← Original Data</t>
+  </si>
+  <si>
+    <t>← Conversions</t>
+  </si>
+  <si>
+    <t>Cube Name</t>
+  </si>
+  <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>$2 - $3.99</t>
-  </si>
-  <si>
-    <t>$0 - $1.99</t>
-  </si>
-  <si>
-    <t>$4 - $5.99</t>
-  </si>
-  <si>
-    <t>$6 - $7.99</t>
-  </si>
-  <si>
-    <t>$8 - $9.99</t>
-  </si>
-  <si>
-    <t>$10+</t>
+    <t>↑ ComboNumSales</t>
+  </si>
+  <si>
+    <t>← Make "All Designs"</t>
+  </si>
+  <si>
+    <t>← Make "Any Facilities"</t>
+  </si>
+  <si>
+    <t>← Make "All Years"</t>
+  </si>
+  <si>
+    <t>← Make "All Periods"</t>
+  </si>
+  <si>
+    <t>← Make "All Combos"</t>
+  </si>
+  <si>
+    <t>← Make "All Suppliers"</t>
+  </si>
+  <si>
+    <t>← Make "All Stores"</t>
+  </si>
+  <si>
+    <t>← Add country to "All Stores"</t>
+  </si>
+  <si>
+    <t>Warning: Magic</t>
+  </si>
+  <si>
+    <t>← Add number of sales dimension</t>
+  </si>
+  <si>
+    <t>Required Dimensions (in cube in this order)</t>
+  </si>
+  <si>
+    <t>JanFeb</t>
+  </si>
+  <si>
+    <t>MarApr</t>
+  </si>
+  <si>
+    <t>MayJun</t>
+  </si>
+  <si>
+    <t>JulAug</t>
+  </si>
+  <si>
+    <t>SepOct</t>
+  </si>
+  <si>
+    <t>NovDec</t>
+  </si>
+  <si>
+    <t>↑ PromotionPeriod</t>
+  </si>
+  <si>
+    <t>PromotionalPeriods</t>
+  </si>
+  <si>
+    <t>SalesPeriods</t>
+  </si>
+  <si>
+    <t>↑ ComboPrice</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>PriceRange</t>
+  </si>
+  <si>
+    <t>PriceRange creation</t>
+  </si>
+  <si>
+    <t>← Make "All Prices"</t>
   </si>
   <si>
     <t>0 - 249</t>
@@ -86,6 +235,24 @@
   </si>
   <si>
     <t>1500+</t>
+  </si>
+  <si>
+    <t>CalorieRange creation</t>
+  </si>
+  <si>
+    <t>CalorieRange</t>
+  </si>
+  <si>
+    <t>← Make "Any Calories"</t>
+  </si>
+  <si>
+    <t>$0 - $3.32</t>
+  </si>
+  <si>
+    <t>$3.33 - $6.65</t>
+  </si>
+  <si>
+    <t>$6.66+</t>
   </si>
   <si>
     <t>All Stores</t>
@@ -179,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -337,6 +504,18 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -796,10 +975,21 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="49" fontId="20" fillId="38" borderId="0" xfId="47">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="34">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="37"/>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="44" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="44" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="29" applyAlignment="1">
@@ -809,7 +999,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="39" borderId="10" xfId="43"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1242,10 +1432,950 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="G9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="G10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="G11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="G12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="G14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="G15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="G16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E27" s="7"/>
+      <c r="G27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>333</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>666</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E32" s="7"/>
+      <c r="G32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E34" s="7"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>250</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>750</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1250</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="G9" s="5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>333</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>666</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>250</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>750</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>1250</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1255,133 +2385,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
+      <c r="A4" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
+      <c r="A5" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
+      <c r="A6" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
+      <c r="A7" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
+      <c r="A8" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
+      <c r="A9" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
+      <c r="A10" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
+      <c r="B12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="12">
         <v>3278289</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="12">
         <v>3260388</v>
       </c>
-      <c r="D13" s="5">
-        <v>2082676</v>
+      <c r="D13" s="12">
+        <v>2097224</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="12">
         <v>3379143</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="12">
         <v>3319011</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="12">
         <v>2194353</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="12">
         <v>3362891</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>3278076</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="12">
         <v>2213186</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="12">
         <v>3331692</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <v>3329445</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <v>2204859</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="12">
         <v>563618</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="12">
         <v>559616</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="12">
         <v>371054</v>
       </c>
     </row>
@@ -1390,12 +2520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1405,133 +2535,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
+      <c r="A4" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
+      <c r="A5" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
+      <c r="A6" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
+      <c r="A7" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
+      <c r="A8" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
+      <c r="A9" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
+      <c r="A10" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
+      <c r="B12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="12">
         <v>3875214</v>
       </c>
-      <c r="C13" s="5">
-        <v>3624583</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="12">
+        <v>3639131</v>
+      </c>
+      <c r="D13" s="12">
         <v>1121556</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="12">
         <v>3959781</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="12">
         <v>3794831</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="12">
         <v>1137895</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="12">
         <v>3906224</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>3814124</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="12">
         <v>1133805</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="12">
         <v>3884370</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <v>3858049</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <v>1123577</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="12">
         <v>656542</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="12">
         <v>645577</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="12">
         <v>192169</v>
       </c>
     </row>
@@ -1540,248 +2670,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="14.7109375" customWidth="1"/>
+    <col min="2" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="12">
         <v>39659</v>
       </c>
-      <c r="C13" s="5">
-        <v>33262</v>
-      </c>
-      <c r="D13" s="5">
-        <v>267120</v>
-      </c>
-      <c r="E13" s="5">
-        <v>518321</v>
-      </c>
-      <c r="F13" s="5">
-        <v>250830</v>
-      </c>
-      <c r="G13" s="5">
-        <v>88012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5">
-        <v>215156</v>
-      </c>
-      <c r="C14" s="5">
-        <v>542641</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1174454</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2285836</v>
-      </c>
-      <c r="F14" s="5">
-        <v>937573</v>
-      </c>
-      <c r="G14" s="5">
-        <v>736313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5">
-        <v>196531</v>
-      </c>
-      <c r="C15" s="5">
-        <v>813815</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1892577</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2092180</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1582964</v>
-      </c>
-      <c r="G15" s="5">
-        <v>465505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5">
-        <v>231538</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1306629</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2796125</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2073792</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1694113</v>
-      </c>
-      <c r="G16" s="5">
-        <v>683591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5">
-        <v>412256</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1526286</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1952059</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1637293</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1352035</v>
-      </c>
-      <c r="G17" s="5">
-        <v>720194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5">
-        <v>313283</v>
-      </c>
-      <c r="C18" s="5">
-        <v>976590</v>
-      </c>
-      <c r="D18" s="5">
-        <v>974022</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2053152</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1318660</v>
-      </c>
-      <c r="G18" s="5">
-        <v>573930</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="C13" s="12">
+        <v>502404</v>
+      </c>
+      <c r="D13" s="12">
+        <v>655141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="12">
+        <v>471914</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2225416</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3194643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="12">
+        <v>693547</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3133056</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3216969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1085811</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4122365</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3577612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1321554</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3293541</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2999576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="12">
+        <v>792149</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2224614</v>
+      </c>
+      <c r="D18" s="12">
+        <v>3192874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1790,7 +2846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1806,115 +2862,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
+      <c r="A4" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
+      <c r="A5" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
+      <c r="A6" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
+      <c r="A7" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+      <c r="A8" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
+      <c r="A9" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
+      <c r="A10" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
+      <c r="B12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="12">
         <v>4733528</v>
       </c>
-      <c r="C13" s="5">
-        <v>3887825</v>
+      <c r="C13" s="12">
+        <v>3902373</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="12">
         <v>3901927</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="12">
         <v>4990580</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="12">
         <v>4295970</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>4558183</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="12">
         <v>3784274</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <v>5081722</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="12">
         <v>803812</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="12">
         <v>690476</v>
       </c>
     </row>
@@ -1923,7 +2979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1936,105 +2992,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
+      <c r="A3" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
+      <c r="A4" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
+      <c r="A5" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
+      <c r="A6" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
+      <c r="A7" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
+      <c r="A8" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
+      <c r="A9" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
+      <c r="A10" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
+      <c r="B12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2058098</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="A13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2072646</v>
+      </c>
+      <c r="C13" s="12">
         <v>4912840</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="12">
         <v>3695538</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="12">
         <v>6497830</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="12">
         <v>5978464</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="12">
         <v>1675544</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="12">
         <v>5020201</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="12">
         <v>2027055</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="12">
         <v>4862727</v>
       </c>
     </row>
